--- a/Assets/Excel/Tutorial.xlsx
+++ b/Assets/Excel/Tutorial.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="11030" windowHeight="9790"/>
+    <workbookView windowWidth="24750" windowHeight="12080"/>
   </bookViews>
   <sheets>
     <sheet name="Tutorial" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
   <si>
     <t>id</t>
   </si>
@@ -35,6 +35,9 @@
     <t>group</t>
   </si>
   <si>
+    <t>strTitle</t>
+  </si>
+  <si>
     <t>strContent</t>
   </si>
   <si>
@@ -51,6 +54,9 @@
   </si>
   <si>
     <t>Battle</t>
+  </si>
+  <si>
+    <t>Move</t>
   </si>
   <si>
     <t>When Move Button selected, you can click tile to move.
@@ -58,15 +64,30 @@
 (Move Button will selected automatically after choosing a character.)</t>
   </si>
   <si>
+    <t>Attack</t>
+  </si>
+  <si>
     <t>When Attack Button selected, the &lt;sprite="Common" name="Range"&gt; range will be shown and you can click tile to attack &lt;sprite="Target" name="FUnit"&gt; Foe in range.
 Attack will cost &lt;sprite="Common" name="AP"&gt; AP</t>
   </si>
   <si>
+    <t>Change Character</t>
+  </si>
+  <si>
     <t>You can click the character box to select &lt;sprite="Target" name="CUnit"&gt; Character in your turn.</t>
   </si>
   <si>
-    <t>After you finish what you want to do, you can click button to end turn.
-If you kill all the &lt;sprite="Target" name="FUnit"&gt; Foe, you win.</t>
+    <t>End Turn</t>
+  </si>
+  <si>
+    <t>After you finish what you want to do, you can click button to end turn.</t>
+  </si>
+  <si>
+    <t>Win and Lose</t>
+  </si>
+  <si>
+    <t>If you kill all the &lt;sprite="Target" name="FUnit"&gt; Foe, you win.
+If all character's &lt;sprite="Common" name="HP"&gt; HP become 0, you will lose.</t>
   </si>
   <si>
     <t>Skill</t>
@@ -1012,153 +1033,185 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:D13"/>
+  <dimension ref="A2:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
   <cols>
-    <col min="2" max="2" width="19.9090909090909" customWidth="1"/>
-    <col min="3" max="3" width="60.2727272727273" customWidth="1"/>
+    <col min="2" max="3" width="19.9090909090909" customWidth="1"/>
+    <col min="4" max="4" width="60.2727272727273" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
       </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
         <v>6</v>
       </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="4" ht="70" spans="1:3">
+    <row r="4" ht="70" spans="1:4">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="5" ht="56" spans="1:3">
+    <row r="5" ht="56" spans="1:4">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="7" ht="56" spans="1:3">
+    <row r="7" ht="28" spans="1:4">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" ht="56" spans="1:4">
       <c r="A8">
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9">
+    <row r="10" spans="1:4">
+      <c r="A10">
         <v>6</v>
       </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9">
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10">
+    <row r="11" spans="1:4">
+      <c r="A11">
         <v>7</v>
       </c>
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10">
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11">
+    <row r="12" spans="1:4">
+      <c r="A12">
         <v>8</v>
       </c>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11">
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12">
+    <row r="13" spans="1:4">
+      <c r="A13">
         <v>9</v>
       </c>
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12">
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13">
+    <row r="14" spans="1:4">
+      <c r="A14">
         <v>10</v>
       </c>
-      <c r="B13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13">
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14">
         <v>2</v>
       </c>
     </row>

--- a/Assets/Excel/Tutorial.xlsx
+++ b/Assets/Excel/Tutorial.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="12080"/>
+    <workbookView windowWidth="14240" windowHeight="11090"/>
   </bookViews>
   <sheets>
     <sheet name="Tutorial" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
   <si>
     <t>id</t>
   </si>
@@ -1036,7 +1036,7 @@
   <dimension ref="A2:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -1156,6 +1156,9 @@
       <c r="B9" t="s">
         <v>19</v>
       </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
       <c r="D9">
         <v>1</v>
       </c>

--- a/Assets/Excel/Tutorial.xlsx
+++ b/Assets/Excel/Tutorial.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14240" windowHeight="11090"/>
+    <workbookView windowWidth="24750" windowHeight="12080"/>
   </bookViews>
   <sheets>
     <sheet name="Tutorial" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="43">
   <si>
     <t>id</t>
   </si>
@@ -90,13 +90,82 @@
 If all character's &lt;sprite="Common" name="HP"&gt; HP become 0, you will lose.</t>
   </si>
   <si>
+    <t>MapClip</t>
+  </si>
+  <si>
+    <t>Select Map</t>
+  </si>
+  <si>
+    <t>You can select 2 mapclips after battle.
+Tiles on the mapclip can change the map and create advantage.</t>
+  </si>
+  <si>
+    <t>Tile Function</t>
+  </si>
+  <si>
+    <t>For example, &lt;sprite="Tile" name="GrassT"&gt; Grass tile can burn and hurt unit above when turn starts.
+&lt;sprite="Tile" name="StoneT"&gt; Stone tile can block the path of foes.</t>
+  </si>
+  <si>
+    <t>Refresh Map</t>
+  </si>
+  <si>
+    <t>You can refresh the choices by clicking REFRESH, which cost &lt;sprite="Common" name="Memory"&gt; Memory.</t>
+  </si>
+  <si>
+    <t>Plant</t>
+  </si>
+  <si>
+    <t>You can select 1 plant after battle.
+&lt;sprite="Target" name="PUnit"&gt; Plant is a special unit without &lt;sprite="Common" name="MOV"&gt; MOV and &lt;sprite="Common" name="AP"&gt; AP.</t>
+  </si>
+  <si>
+    <t>&lt;sprite="Target" name="PUnit"&gt; Plant is useful if the condition of spelling skill is triggered.
+For example, Void Grass will injure everyone near it when the second turn starts.</t>
+  </si>
+  <si>
+    <t>Peace</t>
+  </si>
+  <si>
+    <t>Day Time</t>
+  </si>
+  <si>
+    <t>In day time, you can do a lot of things to prepare for next battle.</t>
+  </si>
+  <si>
+    <t>Learn Skill-1</t>
+  </si>
+  <si>
+    <t>Firstly, you can click the SKILL button to open the skill tree page.
+Then you can spend &lt;sprite="Common" name="SP"&gt; Confidence to learn Skill.</t>
+  </si>
+  <si>
+    <t>Learn Skill-2</t>
+  </si>
+  <si>
+    <t>You can reset the skill tree without limitation.</t>
+  </si>
+  <si>
+    <t>Set Map</t>
+  </si>
+  <si>
+    <t>Secondly, you can click the MAP button to set mapclips.</t>
+  </si>
+  <si>
+    <t>Set Plant</t>
+  </si>
+  <si>
+    <t>Thirdly, you can click Plant button to set &lt;sprite="Target" name="PUnit"&gt; Plant.
+Setting &lt;sprite="Target" name="PUnit"&gt; Plant will occupy the &lt;sprite="Common" name="Essence"&gt; Essence Points.</t>
+  </si>
+  <si>
     <t>Skill</t>
   </si>
   <si>
-    <t>MapClip</t>
-  </si>
-  <si>
-    <t>Plant</t>
+    <t>Spell Skill</t>
+  </si>
+  <si>
+    <t>Combination</t>
   </si>
 </sst>
 </file>
@@ -712,12 +781,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1033,16 +1105,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:E14"/>
+  <dimension ref="A2:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="3" width="19.9090909090909" customWidth="1"/>
-    <col min="4" max="4" width="60.2727272727273" customWidth="1"/>
+    <col min="4" max="4" width="84.2727272727273" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5">
@@ -1135,7 +1207,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" ht="56" spans="1:4">
+    <row r="8" ht="28" spans="1:4">
       <c r="A8">
         <v>5</v>
       </c>
@@ -1149,72 +1221,171 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" ht="28" spans="1:4">
       <c r="A9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
         <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>20</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" ht="42" spans="1:4">
       <c r="A10">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
         <v>19</v>
       </c>
-      <c r="D10">
-        <v>2</v>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" ht="42" spans="1:4">
       <c r="A12">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" ht="42" spans="1:4">
       <c r="A13">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14">
+        <v>29</v>
+      </c>
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" ht="28" spans="1:4">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" ht="42" spans="1:4">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20">
         <v>2</v>
       </c>
     </row>

--- a/Assets/Excel/Tutorial.xlsx
+++ b/Assets/Excel/Tutorial.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="45">
   <si>
     <t>id</t>
   </si>
@@ -54,6 +54,12 @@
   </si>
   <si>
     <t>Battle</t>
+  </si>
+  <si>
+    <t>Camera Control</t>
+  </si>
+  <si>
+    <t>You can press WASD to move the camera and QE to rotate camera.</t>
   </si>
   <si>
     <t>Move</t>
@@ -64,23 +70,23 @@
 (Move Button will selected automatically after choosing a character.)</t>
   </si>
   <si>
+    <t>Change Character</t>
+  </si>
+  <si>
+    <t>You can click the character box to select &lt;sprite="Target" name="CUnit"&gt; Character in your turn.</t>
+  </si>
+  <si>
+    <t>End Turn</t>
+  </si>
+  <si>
+    <t>After you finish what you want to do, you can click button to end turn.</t>
+  </si>
+  <si>
     <t>Attack</t>
   </si>
   <si>
     <t>When Attack Button selected, the &lt;sprite="Common" name="Range"&gt; range will be shown and you can click tile to attack &lt;sprite="Target" name="FUnit"&gt; Foe in range.
 Attack will cost &lt;sprite="Common" name="AP"&gt; AP</t>
-  </si>
-  <si>
-    <t>Change Character</t>
-  </si>
-  <si>
-    <t>You can click the character box to select &lt;sprite="Target" name="CUnit"&gt; Character in your turn.</t>
-  </si>
-  <si>
-    <t>End Turn</t>
-  </si>
-  <si>
-    <t>After you finish what you want to do, you can click button to end turn.</t>
   </si>
   <si>
     <t>Win and Lose</t>
@@ -781,15 +787,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1105,10 +1108,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:E20"/>
+  <dimension ref="A2:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -1151,21 +1154,21 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" ht="70" spans="1:4">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" ht="56" spans="1:4">
+    <row r="5" ht="42" spans="1:4">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1193,7 +1196,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" ht="28" spans="1:4">
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1207,7 +1210,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" ht="28" spans="1:4">
+    <row r="8" ht="42" spans="1:4">
       <c r="A8">
         <v>5</v>
       </c>
@@ -1226,54 +1229,54 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
         <v>19</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" ht="42" spans="1:4">
+    </row>
+    <row r="10" ht="28" spans="1:4">
       <c r="A10">
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" ht="42" spans="1:4">
       <c r="A11">
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" ht="42" spans="1:4">
+    <row r="12" spans="1:4">
       <c r="A12">
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1282,54 +1285,54 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="D13" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" ht="42" spans="1:4">
       <c r="A14">
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" ht="28" spans="1:4">
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15">
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C15" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" ht="28" spans="1:4">
       <c r="A16">
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C16" t="s">
         <v>34</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="2" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1338,7 +1341,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C17" t="s">
         <v>36</v>
@@ -1347,32 +1350,32 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" ht="42" spans="1:4">
+    <row r="18" spans="1:4">
       <c r="A18">
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C18" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" ht="42" spans="1:4">
       <c r="A19">
         <v>16</v>
       </c>
       <c r="B19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" t="s">
         <v>40</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1380,12 +1383,26 @@
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
         <v>42</v>
       </c>
-      <c r="D20">
+      <c r="C21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21">
         <v>2</v>
       </c>
     </row>

--- a/Assets/Excel/Tutorial.xlsx
+++ b/Assets/Excel/Tutorial.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -41,7 +41,7 @@
     <t>strContent</t>
   </si>
   <si>
-    <t>imgUrl</t>
+    <t>gifUrl</t>
   </si>
   <si>
     <t>int</t>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t>You can press WASD to move the camera and QE to rotate camera.</t>
+  </si>
+  <si>
+    <t>CameraControl</t>
   </si>
   <si>
     <t>Move</t>
@@ -1111,13 +1114,14 @@
   <dimension ref="A2:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="3" width="19.9090909090909" customWidth="1"/>
-    <col min="4" max="4" width="84.2727272727273" customWidth="1"/>
+    <col min="4" max="4" width="99.3636363636364" customWidth="1"/>
+    <col min="5" max="5" width="20.8181818181818" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5">
@@ -1154,7 +1158,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1166,6 +1170,9 @@
       </c>
       <c r="D4" t="s">
         <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5" ht="42" spans="1:4">
@@ -1176,10 +1183,10 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1190,10 +1197,10 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1204,10 +1211,10 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" ht="42" spans="1:4">
@@ -1218,10 +1225,10 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" ht="28" spans="1:4">
@@ -1232,10 +1239,10 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" ht="28" spans="1:4">
@@ -1243,13 +1250,13 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" ht="42" spans="1:4">
@@ -1257,13 +1264,13 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1271,13 +1278,13 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" ht="42" spans="1:4">
@@ -1285,13 +1292,13 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" ht="42" spans="1:4">
@@ -1299,13 +1306,13 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1313,13 +1320,13 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" ht="28" spans="1:4">
@@ -1327,13 +1334,13 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1341,13 +1348,13 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1355,13 +1362,13 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" ht="42" spans="1:4">
@@ -1369,13 +1376,13 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1383,10 +1390,10 @@
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -1397,10 +1404,10 @@
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D21">
         <v>2</v>

--- a/Assets/Excel/Tutorial.xlsx
+++ b/Assets/Excel/Tutorial.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -1114,7 +1114,7 @@
   <dimension ref="A2:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -1175,7 +1175,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" ht="42" spans="1:4">
+    <row r="5" ht="42" spans="1:5">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1187,6 +1187,9 @@
       </c>
       <c r="D5" s="2" t="s">
         <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1301,7 +1304,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" ht="42" spans="1:4">
+    <row r="14" ht="28" spans="1:4">
       <c r="A14">
         <v>11</v>
       </c>

--- a/Assets/Excel/Tutorial.xlsx
+++ b/Assets/Excel/Tutorial.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="49">
   <si>
     <t>id</t>
   </si>
@@ -59,7 +59,8 @@
     <t>Camera Control</t>
   </si>
   <si>
-    <t>You can press WASD to move the camera and QE to rotate camera.</t>
+    <t>You can press WASD to move the camera.
+You can press QE to rotate camera.</t>
   </si>
   <si>
     <t>CameraControl</t>
@@ -73,16 +74,23 @@
 (Move Button will selected automatically after choosing a character.)</t>
   </si>
   <si>
-    <t>Change Character</t>
-  </si>
-  <si>
-    <t>You can click the character box to select &lt;sprite="Target" name="CUnit"&gt; Character in your turn.</t>
+    <t>Switch Character</t>
+  </si>
+  <si>
+    <t>You can click the character box on the left
+to select &lt;sprite="Target" name="CUnit"&gt; Character in your turn.</t>
+  </si>
+  <si>
+    <t>SwitchCharacter</t>
   </si>
   <si>
     <t>End Turn</t>
   </si>
   <si>
     <t>After you finish what you want to do, you can click button to end turn.</t>
+  </si>
+  <si>
+    <t>EndTurn</t>
   </si>
   <si>
     <t>Attack</t>
@@ -99,13 +107,42 @@
 If all character's &lt;sprite="Common" name="HP"&gt; HP become 0, you will lose.</t>
   </si>
   <si>
-    <t>MapClip</t>
+    <t>WinLose</t>
+  </si>
+  <si>
+    <t>Skill</t>
+  </si>
+  <si>
+    <t>Learn Skill</t>
+  </si>
+  <si>
+    <t>In day time, you can click the SKILL button to open the skill tree page.
+Then you can spend &lt;sprite="Common" name="SP"&gt; Confidence to learn Skill.</t>
+  </si>
+  <si>
+    <t>Reset Skill</t>
+  </si>
+  <si>
+    <t>You can reset the skill tree without limitation.</t>
+  </si>
+  <si>
+    <t>Spell Skill</t>
+  </si>
+  <si>
+    <t>In battle, you can spell skill after you click a skill button and choose the target tile.
+Some skills will have some combination with map.</t>
+  </si>
+  <si>
+    <t>Lightening</t>
+  </si>
+  <si>
+    <t>Map</t>
   </si>
   <si>
     <t>Select Map</t>
   </si>
   <si>
-    <t>You can select 2 mapclips after battle.
+    <t>You can select mapclips after battle.
 Tiles on the mapclip can change the map and create advantage.</t>
   </si>
   <si>
@@ -122,59 +159,34 @@
     <t>You can refresh the choices by clicking REFRESH, which cost &lt;sprite="Common" name="Memory"&gt; Memory.</t>
   </si>
   <si>
+    <t>Set Map</t>
+  </si>
+  <si>
+    <t>In day time, you can click the MAP button to set mapclips.</t>
+  </si>
+  <si>
     <t>Plant</t>
+  </si>
+  <si>
+    <t>Select Plant</t>
   </si>
   <si>
     <t>You can select 1 plant after battle.
 &lt;sprite="Target" name="PUnit"&gt; Plant is a special unit without &lt;sprite="Common" name="MOV"&gt; MOV and &lt;sprite="Common" name="AP"&gt; AP.</t>
   </si>
   <si>
+    <t>Plant Example</t>
+  </si>
+  <si>
     <t>&lt;sprite="Target" name="PUnit"&gt; Plant is useful if the condition of spelling skill is triggered.
 For example, Void Grass will injure everyone near it when the second turn starts.</t>
   </si>
   <si>
-    <t>Peace</t>
-  </si>
-  <si>
-    <t>Day Time</t>
-  </si>
-  <si>
-    <t>In day time, you can do a lot of things to prepare for next battle.</t>
-  </si>
-  <si>
-    <t>Learn Skill-1</t>
-  </si>
-  <si>
-    <t>Firstly, you can click the SKILL button to open the skill tree page.
-Then you can spend &lt;sprite="Common" name="SP"&gt; Confidence to learn Skill.</t>
-  </si>
-  <si>
-    <t>Learn Skill-2</t>
-  </si>
-  <si>
-    <t>You can reset the skill tree without limitation.</t>
-  </si>
-  <si>
-    <t>Set Map</t>
-  </si>
-  <si>
-    <t>Secondly, you can click the MAP button to set mapclips.</t>
-  </si>
-  <si>
     <t>Set Plant</t>
   </si>
   <si>
-    <t>Thirdly, you can click Plant button to set &lt;sprite="Target" name="PUnit"&gt; Plant.
+    <t>You can click Plant button to set &lt;sprite="Target" name="PUnit"&gt; Plant.
 Setting &lt;sprite="Target" name="PUnit"&gt; Plant will occupy the &lt;sprite="Common" name="Essence"&gt; Essence Points.</t>
-  </si>
-  <si>
-    <t>Skill</t>
-  </si>
-  <si>
-    <t>Spell Skill</t>
-  </si>
-  <si>
-    <t>Combination</t>
   </si>
 </sst>
 </file>
@@ -1111,10 +1123,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:E21"/>
+  <dimension ref="A2:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="A13" sqref="$A13:$XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -1158,7 +1170,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" ht="28" spans="1:5">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1168,7 +1180,7 @@
       <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E4" t="s">
@@ -1192,7 +1204,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" ht="28" spans="1:5">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1202,11 +1214,14 @@
       <c r="C6" t="s">
         <v>14</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1214,13 +1229,16 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" ht="42" spans="1:4">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" ht="42" spans="1:5">
       <c r="A8">
         <v>5</v>
       </c>
@@ -1228,13 +1246,16 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" ht="28" spans="1:4">
+        <v>21</v>
+      </c>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" ht="28" spans="1:5">
       <c r="A9">
         <v>6</v>
       </c>
@@ -1242,10 +1263,13 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="E9" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="10" ht="28" spans="1:4">
@@ -1253,167 +1277,142 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" ht="42" spans="1:4">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" ht="28" spans="1:5">
       <c r="A12">
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" ht="42" spans="1:4">
+        <v>30</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" ht="28" spans="1:4">
       <c r="A13">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" ht="28" spans="1:4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" ht="42" spans="1:4">
       <c r="A14">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
         <v>33</v>
       </c>
-      <c r="D15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" ht="28" spans="1:4">
-      <c r="A16">
-        <v>13</v>
-      </c>
-      <c r="B16" t="s">
-        <v>32</v>
-      </c>
       <c r="C16" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>40</v>
+      </c>
+      <c r="D16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" ht="42" spans="1:4">
       <c r="A17">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>43</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" ht="28" spans="1:4">
       <c r="A18">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C18" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" t="s">
-        <v>40</v>
+        <v>45</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="19" ht="42" spans="1:4">
       <c r="A19">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C19" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20">
-        <v>17</v>
-      </c>
-      <c r="B20" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" t="s">
-        <v>44</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21">
-        <v>18</v>
-      </c>
-      <c r="B21" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" t="s">
-        <v>45</v>
-      </c>
-      <c r="D21">
-        <v>2</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/Tutorial.xlsx
+++ b/Assets/Excel/Tutorial.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -143,26 +143,29 @@
   </si>
   <si>
     <t>You can select mapclips after battle.
-Tiles on the mapclip can change the map and create advantage.</t>
+You can refresh the choices by clicking REFRESH, which cost &lt;sprite="Common" name="Memory"&gt; Memory.</t>
+  </si>
+  <si>
+    <t>SelectMap</t>
   </si>
   <si>
     <t>Tile Function</t>
   </si>
   <si>
-    <t>For example, &lt;sprite="Tile" name="GrassT"&gt; Grass tile can burn and hurt unit above when turn starts.
-&lt;sprite="Tile" name="StoneT"&gt; Stone tile can block the path of foes.</t>
-  </si>
-  <si>
-    <t>Refresh Map</t>
-  </si>
-  <si>
-    <t>You can refresh the choices by clicking REFRESH, which cost &lt;sprite="Common" name="Memory"&gt; Memory.</t>
+    <t>Some tiles can create advantage.
+For example, &lt;sprite="Tile" name="GrassT"&gt; Grass tile can burn and hurt unit above when turn starts, &lt;sprite="Tile" name="StoneT"&gt; Stone tile can block the path of foes.</t>
+  </si>
+  <si>
+    <t>GrassBurn</t>
   </si>
   <si>
     <t>Set Map</t>
   </si>
   <si>
     <t>In day time, you can click the MAP button to set mapclips.</t>
+  </si>
+  <si>
+    <t>SetMap</t>
   </si>
   <si>
     <t>Plant</t>
@@ -1123,10 +1126,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:E19"/>
+  <dimension ref="A2:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="$A13:$XFD13"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -1317,9 +1320,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" ht="28" spans="1:4">
+    <row r="13" ht="42" spans="1:5">
       <c r="A13">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
         <v>33</v>
@@ -1330,89 +1333,84 @@
       <c r="D13" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="14" ht="42" spans="1:4">
+      <c r="E13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" ht="42" spans="1:5">
       <c r="A14">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
         <v>33</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>38</v>
+      </c>
+      <c r="E14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
         <v>33</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>41</v>
+      </c>
+      <c r="E15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" ht="42" spans="1:4">
       <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" ht="28" spans="1:4">
+      <c r="A17">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" ht="42" spans="1:4">
-      <c r="A17">
+      <c r="B17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" ht="42" spans="1:4">
+      <c r="A18">
         <v>15</v>
       </c>
-      <c r="B17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="B18" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" ht="28" spans="1:4">
-      <c r="A18">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>42</v>
-      </c>
       <c r="C18" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" ht="42" spans="1:4">
-      <c r="A19">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" t="s">
-        <v>47</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/Tutorial.xlsx
+++ b/Assets/Excel/Tutorial.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="54">
   <si>
     <t>id</t>
   </si>
@@ -120,10 +120,16 @@
 Then you can spend &lt;sprite="Common" name="SP"&gt; Confidence to learn Skill.</t>
   </si>
   <si>
+    <t>LearnSkill</t>
+  </si>
+  <si>
     <t>Reset Skill</t>
   </si>
   <si>
     <t>You can reset the skill tree without limitation.</t>
+  </si>
+  <si>
+    <t>ResetSkill</t>
   </si>
   <si>
     <t>Spell Skill</t>
@@ -175,7 +181,10 @@
   </si>
   <si>
     <t>You can select 1 plant after battle.
-&lt;sprite="Target" name="PUnit"&gt; Plant is a special unit without &lt;sprite="Common" name="MOV"&gt; MOV and &lt;sprite="Common" name="AP"&gt; AP.</t>
+&lt;sprite="Target" name="PUnit"&gt; Plant is a special unit without &lt;sprite="Common" name="MOV"&gt; MOV and &lt;sprite="Common" name="AP"&gt; AP, and their skills can be triggered via different condition.</t>
+  </si>
+  <si>
+    <t>SelectPlant</t>
   </si>
   <si>
     <t>Plant Example</t>
@@ -190,6 +199,9 @@
   <si>
     <t>You can click Plant button to set &lt;sprite="Target" name="PUnit"&gt; Plant.
 Setting &lt;sprite="Target" name="PUnit"&gt; Plant will occupy the &lt;sprite="Common" name="Essence"&gt; Essence Points.</t>
+  </si>
+  <si>
+    <t>SetPlant</t>
   </si>
 </sst>
 </file>
@@ -1129,7 +1141,7 @@
   <dimension ref="A2:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -1275,7 +1287,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" ht="28" spans="1:4">
+    <row r="10" ht="28" spans="1:5">
       <c r="A10">
         <v>7</v>
       </c>
@@ -1288,8 +1300,11 @@
       <c r="D10" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>8</v>
       </c>
@@ -1297,10 +1312,13 @@
         <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="E11" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="12" ht="28" spans="1:5">
@@ -1311,13 +1329,13 @@
         <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" ht="42" spans="1:5">
@@ -1325,16 +1343,16 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E13" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" ht="42" spans="1:5">
@@ -1342,16 +1360,16 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E14" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1359,30 +1377,33 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D15" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E15" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" ht="42" spans="1:4">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" ht="42" spans="1:5">
       <c r="A16">
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C16" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
+      </c>
+      <c r="E16" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="17" ht="28" spans="1:4">
@@ -1390,27 +1411,30 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C17" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" ht="42" spans="1:4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" ht="42" spans="1:5">
       <c r="A18">
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C18" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
+      </c>
+      <c r="E18" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/Tutorial.xlsx
+++ b/Assets/Excel/Tutorial.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="55">
   <si>
     <t>id</t>
   </si>
@@ -191,7 +191,10 @@
   </si>
   <si>
     <t>&lt;sprite="Target" name="PUnit"&gt; Plant is useful if the condition of spelling skill is triggered.
-For example, Void Grass will injure everyone near it when the second turn starts.</t>
+For example, Void Grass will injure everyone around it when the second turn starts.</t>
+  </si>
+  <si>
+    <t>PlantBoom</t>
   </si>
   <si>
     <t>Set Plant</t>
@@ -1141,7 +1144,7 @@
   <dimension ref="A2:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -1406,7 +1409,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" ht="28" spans="1:4">
+    <row r="17" ht="28" spans="1:5">
       <c r="A17">
         <v>14</v>
       </c>
@@ -1418,6 +1421,9 @@
       </c>
       <c r="D17" s="2" t="s">
         <v>50</v>
+      </c>
+      <c r="E17" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="18" ht="42" spans="1:5">
@@ -1428,13 +1434,13 @@
         <v>45</v>
       </c>
       <c r="C18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/Tutorial.xlsx
+++ b/Assets/Excel/Tutorial.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="58">
   <si>
     <t>id</t>
   </si>
@@ -108,6 +108,16 @@
   </si>
   <si>
     <t>WinLose</t>
+  </si>
+  <si>
+    <t>Target Detail</t>
+  </si>
+  <si>
+    <t>When you put mouse over the &lt;sprite="Target" name="FUnit"&gt; Foe without selecting skill, you can see the move and attack range of the unit.
+If you put mouse over the buff icon, you can read the buff detail.</t>
+  </si>
+  <si>
+    <t>TargetDetail</t>
   </si>
   <si>
     <t>Skill</t>
@@ -1141,10 +1151,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:E18"/>
+  <dimension ref="A2:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="A4" sqref="A4:A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -1290,29 +1300,29 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" ht="28" spans="1:5">
+    <row r="10" ht="42" spans="1:5">
       <c r="A10">
         <v>7</v>
       </c>
       <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
         <v>25</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" t="s">
         <v>27</v>
       </c>
-      <c r="E10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+    </row>
+    <row r="11" ht="28" spans="1:5">
       <c r="A11">
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
         <v>29</v>
@@ -1324,12 +1334,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" ht="28" spans="1:5">
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
         <v>32</v>
@@ -1341,21 +1351,21 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" ht="42" spans="1:5">
+    <row r="13" ht="28" spans="1:5">
       <c r="A13">
         <v>10</v>
       </c>
       <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" t="s">
         <v>35</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="E13" t="s">
         <v>37</v>
-      </c>
-      <c r="E13" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="14" ht="42" spans="1:5">
@@ -1363,7 +1373,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C14" t="s">
         <v>39</v>
@@ -1375,46 +1385,46 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" ht="42" spans="1:5">
       <c r="A15">
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C15" t="s">
         <v>42</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E15" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="16" ht="42" spans="1:5">
+    <row r="16" spans="1:5">
       <c r="A16">
         <v>13</v>
       </c>
       <c r="B16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" t="s">
         <v>45</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="E16" t="s">
         <v>47</v>
       </c>
-      <c r="E16" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" ht="28" spans="1:5">
+    </row>
+    <row r="17" ht="42" spans="1:5">
       <c r="A17">
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C17" t="s">
         <v>49</v>
@@ -1426,12 +1436,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" ht="42" spans="1:5">
+    <row r="18" ht="28" spans="1:5">
       <c r="A18">
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C18" t="s">
         <v>52</v>
@@ -1441,6 +1451,23 @@
       </c>
       <c r="E18" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="19" ht="42" spans="1:5">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/Tutorial.xlsx
+++ b/Assets/Excel/Tutorial.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="59">
   <si>
     <t>id</t>
   </si>
@@ -39,6 +39,9 @@
   </si>
   <si>
     <t>strContent</t>
+  </si>
+  <si>
+    <t>strContent_cn</t>
   </si>
   <si>
     <t>gifUrl</t>
@@ -1151,20 +1154,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:E19"/>
+  <dimension ref="A2:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A19"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
   <cols>
     <col min="2" max="3" width="19.9090909090909" customWidth="1"/>
-    <col min="4" max="4" width="99.3636363636364" customWidth="1"/>
-    <col min="5" max="5" width="20.8181818181818" customWidth="1"/>
+    <col min="4" max="5" width="99.3636363636364" customWidth="1"/>
+    <col min="6" max="6" width="20.8181818181818" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1180,294 +1183,315 @@
       <c r="E2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" ht="28" spans="1:5">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" ht="28" spans="1:6">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" ht="42" spans="1:5">
+      <c r="E4" s="2"/>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" ht="42" spans="1:6">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" t="s">
         <v>13</v>
       </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" ht="28" spans="1:5">
+    </row>
+    <row r="6" ht="28" spans="1:6">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="E6" s="2"/>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" ht="42" spans="1:5">
+      <c r="E7" s="2"/>
+      <c r="F7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" ht="42" spans="1:6">
       <c r="A8">
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" t="s">
         <v>21</v>
       </c>
-      <c r="E8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" ht="28" spans="1:5">
+    </row>
+    <row r="9" ht="28" spans="1:6">
       <c r="A9">
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="10" ht="42" spans="1:5">
+      <c r="E9" s="2"/>
+      <c r="F9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" ht="42" spans="1:6">
       <c r="A10">
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" ht="28" spans="1:5">
+      <c r="E10" s="2"/>
+      <c r="F10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" ht="28" spans="1:6">
       <c r="A11">
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="E11" s="2"/>
+      <c r="F11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="13" ht="28" spans="1:5">
+      <c r="E12" s="2"/>
+      <c r="F12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" ht="28" spans="1:6">
       <c r="A13">
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="14" ht="42" spans="1:5">
+      <c r="E13" s="2"/>
+      <c r="F13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" ht="42" spans="1:6">
       <c r="A14">
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="15" ht="42" spans="1:5">
+      <c r="E14" s="2"/>
+      <c r="F14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" ht="42" spans="1:6">
       <c r="A15">
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E15" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="E15" s="2"/>
+      <c r="F15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D16" t="s">
-        <v>46</v>
-      </c>
-      <c r="E16" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="17" ht="42" spans="1:5">
+      <c r="F16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" ht="42" spans="1:6">
       <c r="A17">
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E17" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="18" ht="28" spans="1:5">
+      <c r="E17" s="2"/>
+      <c r="F17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" ht="28" spans="1:6">
       <c r="A18">
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E18" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="19" ht="42" spans="1:5">
+      <c r="E18" s="2"/>
+      <c r="F18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" ht="42" spans="1:6">
       <c r="A19">
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E19" t="s">
         <v>57</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/Tutorial.xlsx
+++ b/Assets/Excel/Tutorial.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
   <si>
     <t>id</t>
   </si>
@@ -35,13 +35,16 @@
     <t>group</t>
   </si>
   <si>
-    <t>strTitle</t>
-  </si>
-  <si>
-    <t>strContent</t>
-  </si>
-  <si>
-    <t>strContent_cn</t>
+    <t>strTitle_EN</t>
+  </si>
+  <si>
+    <t>strTitle_CN</t>
+  </si>
+  <si>
+    <t>strContent_EN</t>
+  </si>
+  <si>
+    <t>strContent_CN</t>
   </si>
   <si>
     <t>gifUrl</t>
@@ -60,16 +63,26 @@
   </si>
   <si>
     <t>Camera Control</t>
+  </si>
+  <si>
+    <t>相机控制</t>
   </si>
   <si>
     <t>You can press WASD to move the camera.
 You can press QE to rotate camera.</t>
   </si>
   <si>
+    <t>你可以通过按键盘的 WASD 来移动摄像机。
+按 QE 来旋转摄像机。</t>
+  </si>
+  <si>
     <t>CameraControl</t>
   </si>
   <si>
     <t>Move</t>
+  </si>
+  <si>
+    <t>移动</t>
   </si>
   <si>
     <t>When Move Button selected, you can click tile to move.
@@ -77,49 +90,87 @@
 (Move Button will selected automatically after choosing a character.)</t>
   </si>
   <si>
+    <t>当移动按钮被选中，你可以点击地块来移动。
+移动角色会消耗 &lt;sprite="Common" name="MOV"&gt; 移动力。
+(当选中一个角色时，移动按钮会被自动选中)</t>
+  </si>
+  <si>
     <t>Switch Character</t>
+  </si>
+  <si>
+    <t>切换角色</t>
   </si>
   <si>
     <t>You can click the character box on the left
 to select &lt;sprite="Target" name="CUnit"&gt; Character in your turn.</t>
   </si>
   <si>
+    <t>在你的回合，你可以点击左边的角色盒来切换 &lt;sprite="Target" name="CUnit"&gt; 角色。</t>
+  </si>
+  <si>
     <t>SwitchCharacter</t>
   </si>
   <si>
     <t>End Turn</t>
   </si>
   <si>
+    <t>结束回合</t>
+  </si>
+  <si>
     <t>After you finish what you want to do, you can click button to end turn.</t>
   </si>
   <si>
+    <t>在你完成所有你想做的事情后，可以点击按钮结束回合。</t>
+  </si>
+  <si>
     <t>EndTurn</t>
   </si>
   <si>
     <t>Attack</t>
   </si>
   <si>
+    <t>攻击</t>
+  </si>
+  <si>
     <t>When Attack Button selected, the &lt;sprite="Common" name="Range"&gt; range will be shown and you can click tile to attack &lt;sprite="Target" name="FUnit"&gt; Foe in range.
-Attack will cost &lt;sprite="Common" name="AP"&gt; AP</t>
+Attack will cost 1 &lt;sprite="Common" name="AP"&gt; AP which will recover when turn starts.</t>
+  </si>
+  <si>
+    <t>当攻击按钮被选中，&lt;sprite="Common" name="Range"&gt; 范围会被显示然后你可以点击地块攻击范围内的 &lt;sprite="Target" name="FUnit"&gt; 敌人。
+攻击会消耗1点 &lt;sprite="Common" name="AP"&gt; 行动力,行动力会在回合开始时回满。</t>
   </si>
   <si>
     <t>Win and Lose</t>
   </si>
   <si>
+    <t>胜负条件</t>
+  </si>
+  <si>
     <t>If you kill all the &lt;sprite="Target" name="FUnit"&gt; Foe, you win.
-If all character's &lt;sprite="Common" name="HP"&gt; HP become 0, you will lose.</t>
+If all &lt;sprite="Target" name="CUnit"&gt; character's &lt;sprite="Common" name="HP"&gt; HP become 0, you will lose.</t>
+  </si>
+  <si>
+    <t>如果你击败了所有 &lt;sprite="Target" name="FUnit"&gt; 敌人,你获胜。
+如果所有 &lt;sprite="Target" name="CUnit"&gt; 角色的 &lt;sprite="Common" name="HP"&gt; 生命归0，你会输。</t>
   </si>
   <si>
     <t>WinLose</t>
   </si>
   <si>
     <t>Target Detail</t>
+  </si>
+  <si>
+    <t>目标详情</t>
   </si>
   <si>
     <t>When you put mouse over the &lt;sprite="Target" name="FUnit"&gt; Foe without selecting skill, you can see the move and attack range of the unit.
 If you put mouse over the buff icon, you can read the buff detail.</t>
   </si>
   <si>
+    <t>当你把鼠标放在 &lt;sprite="Target" name="FUnit"&gt; 敌人身上且没有选中技能时，你可以看到该单位的移动攻击范围。
+当你把鼠标放在Buff图标上，你可以阅读详情。</t>
+  </si>
+  <si>
     <t>TargetDetail</t>
   </si>
   <si>
@@ -127,63 +178,103 @@
   </si>
   <si>
     <t>Learn Skill</t>
+  </si>
+  <si>
+    <t>学习技能</t>
   </si>
   <si>
     <t>In day time, you can click the SKILL button to open the skill tree page.
 Then you can spend &lt;sprite="Common" name="SP"&gt; Confidence to learn Skill.</t>
   </si>
   <si>
+    <t>在白天，你可以点击技能按钮打开技能树界面。
+然后你可以消耗 &lt;sprite="Common" name="SP"&gt; 自信来学习技能。</t>
+  </si>
+  <si>
     <t>LearnSkill</t>
   </si>
   <si>
     <t>Reset Skill</t>
   </si>
   <si>
+    <t>重置技能</t>
+  </si>
+  <si>
     <t>You can reset the skill tree without limitation.</t>
   </si>
   <si>
+    <t>你可以无限重置技能树。</t>
+  </si>
+  <si>
     <t>ResetSkill</t>
   </si>
   <si>
     <t>Spell Skill</t>
+  </si>
+  <si>
+    <t>释放技能</t>
   </si>
   <si>
     <t>In battle, you can spell skill after you click a skill button and choose the target tile.
 Some skills will have some combination with map.</t>
   </si>
   <si>
+    <t>在战斗中，你可以在选中一个技能并点击地块来释放技能。
+一些技能会和地块有配合。</t>
+  </si>
+  <si>
     <t>Lightening</t>
   </si>
   <si>
     <t>Map</t>
   </si>
   <si>
-    <t>Select Map</t>
+    <t>Select MapClip</t>
+  </si>
+  <si>
+    <t>获取地图块</t>
   </si>
   <si>
     <t>You can select mapclips after battle.
 You can refresh the choices by clicking REFRESH, which cost &lt;sprite="Common" name="Memory"&gt; Memory.</t>
   </si>
   <si>
+    <t>你可以在战斗后抽取地图块。
+你可以按刷新按钮来刷新抽取结果，这会消耗 &lt;sprite="Common" name="Memory"&gt; 回忆。</t>
+  </si>
+  <si>
     <t>SelectMap</t>
   </si>
   <si>
     <t>Tile Function</t>
   </si>
   <si>
+    <t>地块功能</t>
+  </si>
+  <si>
     <t>Some tiles can create advantage.
-For example, &lt;sprite="Tile" name="GrassT"&gt; Grass tile can burn and hurt unit above when turn starts, &lt;sprite="Tile" name="StoneT"&gt; Stone tile can block the path of foes.</t>
+For example, &lt;sprite="Tile" name="GrassT"&gt; Grass tile can burn and apply &lt;sprite="BuffS" name="Burn"&gt; Burning above when turn starts, &lt;sprite="Tile" name="StoneT"&gt; Stone tile can block the path of foes.</t>
+  </si>
+  <si>
+    <t>一些地块能在战斗中造优。
+例如， &lt;sprite="Tile" name="GrassT"&gt; 草地块能被点燃并在回合开始时附加 &lt;sprite="BuffS" name="Burn"&gt; 灼烧, &lt;sprite="Tile" name="StoneT"&gt; 石地块能阻碍移动。</t>
   </si>
   <si>
     <t>GrassBurn</t>
   </si>
   <si>
-    <t>Set Map</t>
+    <t>Set MapClip</t>
+  </si>
+  <si>
+    <t>放置地图块</t>
   </si>
   <si>
     <t>In day time, you can click the MAP button to set mapclips.</t>
   </si>
   <si>
+    <t>在白天，你可以点击地图按钮放置地图块。</t>
+  </si>
+  <si>
     <t>SetMap</t>
   </si>
   <si>
@@ -191,30 +282,51 @@
   </si>
   <si>
     <t>Select Plant</t>
+  </si>
+  <si>
+    <t>获取植物</t>
   </si>
   <si>
     <t>You can select 1 plant after battle.
 &lt;sprite="Target" name="PUnit"&gt; Plant is a special unit without &lt;sprite="Common" name="MOV"&gt; MOV and &lt;sprite="Common" name="AP"&gt; AP, and their skills can be triggered via different condition.</t>
   </si>
   <si>
+    <t>你可以在战斗后获取1种植物。
+&lt;sprite="Target" name="PUnit"&gt; 植物是一种没有 &lt;sprite="Common" name="MOV"&gt; 移动力 &lt;sprite="Common" name="AP"&gt; 行动力的特殊单位，它们的技能会被不同条件触发。</t>
+  </si>
+  <si>
     <t>SelectPlant</t>
   </si>
   <si>
     <t>Plant Example</t>
+  </si>
+  <si>
+    <t>植物功能</t>
   </si>
   <si>
     <t>&lt;sprite="Target" name="PUnit"&gt; Plant is useful if the condition of spelling skill is triggered.
 For example, Void Grass will injure everyone around it when the second turn starts.</t>
   </si>
   <si>
+    <t>&lt;sprite="Target" name="PUnit"&gt; 植物会很有用，当它们的技能触发时。
+例如，虚无草会在第二回合自爆炸伤附近的所有单位。</t>
+  </si>
+  <si>
     <t>PlantBoom</t>
   </si>
   <si>
     <t>Set Plant</t>
+  </si>
+  <si>
+    <t>放置植物</t>
   </si>
   <si>
     <t>You can click Plant button to set &lt;sprite="Target" name="PUnit"&gt; Plant.
 Setting &lt;sprite="Target" name="PUnit"&gt; Plant will occupy the &lt;sprite="Common" name="Essence"&gt; Essence Points.</t>
+  </si>
+  <si>
+    <t>你可以点击植物按钮开始放置 &lt;sprite="Target" name="PUnit"&gt; 植物。
+放置 &lt;sprite="Target" name="PUnit"&gt; 植物会占据 &lt;sprite="Common" name="Essence"&gt; 精华点。</t>
   </si>
   <si>
     <t>SetPlant</t>
@@ -1154,20 +1266,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:F19"/>
+  <dimension ref="A2:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
   <cols>
-    <col min="2" max="3" width="19.9090909090909" customWidth="1"/>
-    <col min="4" max="5" width="99.3636363636364" customWidth="1"/>
-    <col min="6" max="6" width="20.8181818181818" customWidth="1"/>
+    <col min="2" max="4" width="19.9090909090909" customWidth="1"/>
+    <col min="5" max="6" width="99.3636363636364" customWidth="1"/>
+    <col min="7" max="7" width="20.8181818181818" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1177,7 +1289,7 @@
       <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E2" t="s">
@@ -1186,312 +1298,399 @@
       <c r="F2" t="s">
         <v>5</v>
       </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="G3" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="4" ht="28" spans="1:6">
+    <row r="4" ht="28" spans="1:7">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" t="s">
+      <c r="D4" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="E4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="5" ht="42" spans="1:6">
+    <row r="5" ht="42" spans="1:7">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" t="s">
-        <v>13</v>
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="6" ht="28" spans="1:6">
+    <row r="6" ht="28" spans="1:7">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" t="s">
-        <v>20</v>
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="8" ht="42" spans="1:6">
+    <row r="8" ht="42" spans="1:7">
       <c r="A8">
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" t="s">
-        <v>21</v>
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="9" ht="28" spans="1:6">
+    <row r="9" ht="42" spans="1:7">
       <c r="A9">
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" t="s">
-        <v>25</v>
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="10" ht="42" spans="1:6">
+    <row r="10" ht="42" spans="1:7">
       <c r="A10">
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" t="s">
-        <v>28</v>
+        <v>39</v>
+      </c>
+      <c r="D10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="11" ht="28" spans="1:6">
+    <row r="11" ht="28" spans="1:7">
       <c r="A11">
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" t="s">
-        <v>32</v>
+        <v>45</v>
+      </c>
+      <c r="D11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" t="s">
-        <v>35</v>
+        <v>50</v>
+      </c>
+      <c r="D12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G12" t="s">
+        <v>54</v>
       </c>
     </row>
-    <row r="13" ht="28" spans="1:6">
+    <row r="13" ht="28" spans="1:7">
       <c r="A13">
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="F13" t="s">
-        <v>38</v>
+        <v>55</v>
+      </c>
+      <c r="D13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G13" t="s">
+        <v>59</v>
       </c>
     </row>
-    <row r="14" ht="42" spans="1:6">
+    <row r="14" ht="42" spans="1:7">
       <c r="A14">
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="F14" t="s">
-        <v>42</v>
+        <v>61</v>
+      </c>
+      <c r="D14" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G14" t="s">
+        <v>65</v>
       </c>
     </row>
-    <row r="15" ht="42" spans="1:6">
+    <row r="15" ht="56" spans="1:7">
       <c r="A15">
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" s="2"/>
-      <c r="F15" t="s">
-        <v>45</v>
+        <v>66</v>
+      </c>
+      <c r="D15" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G15" t="s">
+        <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="D16" t="s">
-        <v>47</v>
-      </c>
-      <c r="F16" t="s">
-        <v>48</v>
+        <v>72</v>
+      </c>
+      <c r="E16" t="s">
+        <v>73</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G16" t="s">
+        <v>75</v>
       </c>
     </row>
-    <row r="17" ht="42" spans="1:6">
+    <row r="17" ht="42" spans="1:7">
       <c r="A17">
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="C17" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E17" s="2"/>
-      <c r="F17" t="s">
-        <v>52</v>
+        <v>77</v>
+      </c>
+      <c r="D17" t="s">
+        <v>78</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G17" t="s">
+        <v>81</v>
       </c>
     </row>
-    <row r="18" ht="28" spans="1:6">
+    <row r="18" ht="28" spans="1:7">
       <c r="A18">
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="C18" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E18" s="2"/>
-      <c r="F18" t="s">
-        <v>55</v>
+        <v>82</v>
+      </c>
+      <c r="D18" t="s">
+        <v>83</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G18" t="s">
+        <v>86</v>
       </c>
     </row>
-    <row r="19" ht="42" spans="1:6">
+    <row r="19" ht="42" spans="1:7">
       <c r="A19">
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="C19" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E19" s="2"/>
-      <c r="F19" t="s">
-        <v>58</v>
+        <v>87</v>
+      </c>
+      <c r="D19" t="s">
+        <v>88</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G19" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
